--- a/dataset/SaldoAnterior.xlsx
+++ b/dataset/SaldoAnterior.xlsx
@@ -1,50 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34ed68c2d0e7e9fe/YouTube/2024-05-12 - Fluxo de caixa/Projeto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuário\Documents\_rma\_tecnologia\_data\evolve_data\projetos\projeto_fluxo_de_caixa_evolve\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{1234EEC5-F1A3-4BA9-93C5-295AA1F6AA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{411505E3-1D1A-467A-8F8C-AF41A1C63425}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEC287F-E488-434C-B0E0-BB65ABBEBEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{69803419-23F1-49B4-B88F-0AA51EE3DECF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{69803419-23F1-49B4-B88F-0AA51EE3DECF}"/>
   </bookViews>
   <sheets>
     <sheet name="SaldoAnterior" sheetId="4" r:id="rId1"/>
-    <sheet name="Opções" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="Planilha1" sheetId="5" r:id="rId2"/>
+    <sheet name="Opções" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -59,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Bancos</t>
   </si>
@@ -71,6 +61,93 @@
   </si>
   <si>
     <t>Banco_ID</t>
+  </si>
+  <si>
+    <t>Tabela: SaldoAnterior</t>
+  </si>
+  <si>
+    <t>Coluna</t>
+  </si>
+  <si>
+    <t>Tipo de Dado</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <r>
+      <t>Inteiro (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Identificador do banco, utilizado como chave estrangeira para relacionar à tabela </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bancos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Número decimal (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Valor do saldo inicial do banco antes do início dos lançamentos de movimentos. Pode ser positivo ou negativo.</t>
   </si>
 </sst>
 </file>
@@ -80,7 +157,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,16 +170,35 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -110,14 +206,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,16 +601,16 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -492,7 +618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -500,7 +626,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -508,7 +634,7 @@
         <v>-1000000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -525,6 +651,61 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD75F9D0-C229-48DC-8F29-4F1CE123AC95}">
+  <dimension ref="B2:D6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="30">
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="45">
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA144B83-450D-49F0-B3E3-09514F696D13}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -532,12 +713,12 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -545,7 +726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="e">
         <v>#REF!</v>
       </c>

--- a/dataset/SaldoAnterior.xlsx
+++ b/dataset/SaldoAnterior.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuário\Documents\_rma\_tecnologia\_data\evolve_data\projetos\projeto_fluxo_de_caixa_evolve\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEC287F-E488-434C-B0E0-BB65ABBEBEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD742D2-1F4C-4B49-8FDF-141E66B1ADC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{69803419-23F1-49B4-B88F-0AA51EE3DECF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{69803419-23F1-49B4-B88F-0AA51EE3DECF}"/>
   </bookViews>
   <sheets>
     <sheet name="SaldoAnterior" sheetId="4" r:id="rId1"/>
@@ -238,11 +238,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -600,7 +600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4A0BFC-FEEB-439A-A140-FEB0B86E903E}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -654,7 +654,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD75F9D0-C229-48DC-8F29-4F1CE123AC95}">
   <dimension ref="B2:D6"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -663,18 +665,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
     </row>

--- a/dataset/SaldoAnterior.xlsx
+++ b/dataset/SaldoAnterior.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuário\Documents\_rma\_tecnologia\_data\evolve_data\projetos\projeto_fluxo_de_caixa_evolve\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD742D2-1F4C-4B49-8FDF-141E66B1ADC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B09A28-C826-4781-A0B8-92C3C9FA453B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{69803419-23F1-49B4-B88F-0AA51EE3DECF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{69803419-23F1-49B4-B88F-0AA51EE3DECF}"/>
   </bookViews>
   <sheets>
     <sheet name="SaldoAnterior" sheetId="4" r:id="rId1"/>
     <sheet name="Planilha1" sheetId="5" r:id="rId2"/>
-    <sheet name="Opções" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="Planilha1 (2)" sheetId="6" r:id="rId3"/>
+    <sheet name="Opções" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Bancos</t>
   </si>
@@ -148,6 +149,31 @@
   </si>
   <si>
     <t>Valor do saldo inicial do banco antes do início dos lançamentos de movimentos. Pode ser positivo ou negativo.</t>
+  </si>
+  <si>
+    <t>Tabela: f_saldo_anterior</t>
+  </si>
+  <si>
+    <t>Moeda / Numérico</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Identificador do banco, utilizado como chave estrangeira para relacionar à tabela </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dim_bancos.</t>
+    </r>
+  </si>
+  <si>
+    <t>Valor monetário resultante das transformações realizadas (ex.: somas, ajustes ou consolidações de dados). Pode representar saldo, movimentação ou resultado financeiro. Valores negativos indicam saídas, e positivos indicam entradas.</t>
   </si>
 </sst>
 </file>
@@ -654,7 +680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD75F9D0-C229-48DC-8F29-4F1CE123AC95}">
   <dimension ref="B2:D6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -708,6 +734,63 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E653D7E-1D47-49C1-BEAE-74B46406C243}">
+  <dimension ref="B2:D6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="30">
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="75">
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA144B83-450D-49F0-B3E3-09514F696D13}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -733,8 +816,8 @@
         <v>#REF!</v>
       </c>
       <c r="C2" t="e" cm="1">
-        <f t="array" ref="C2">_xlfn.UNIQUE(#REF!)</f>
-        <v>#REF!</v>
+        <f t="array" aca="1" ref="C2" ca="1">_xlfn.UNIQUE(#REF!)</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
